--- a/INTLINE/data/542/BOKNA/Annual.xlsx
+++ b/INTLINE/data/542/BOKNA/Annual.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lawre\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02BE37BB-38C8-41F4-9B70-E1076504746F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BCC3581-301D-4B70-96CB-41608A81FC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="23880" windowHeight="9870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1198,7 +1198,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="57"/>
     <col min="2" max="2" width="29"/>
@@ -5797,9 +5797,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="127"/>
+    <col min="1" max="1" width="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="23.25" customHeight="1">
@@ -5815,6 +5815,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/INTLINE/data/542/BOKNA/Annual.xlsx
+++ b/INTLINE/data/542/BOKNA/Annual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BCC3581-301D-4B70-96CB-41608A81FC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E1BC33B-9EAB-44CB-B551-494D3ABBC53B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="23880" windowHeight="9870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -440,235 +440,235 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1434,68 +1434,68 @@
       </c>
     </row>
     <row r="2" spans="1:73" ht="23.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E2" s="6">
-        <v>22.4</v>
+        <v>22.38</v>
       </c>
       <c r="F2" s="7">
-        <v>26.2</v>
+        <v>26.19</v>
       </c>
       <c r="G2" s="8">
-        <v>50.6</v>
+        <v>50.63</v>
       </c>
       <c r="H2" s="9">
-        <v>71.2</v>
+        <v>71.16</v>
       </c>
       <c r="I2" s="10">
-        <v>89.1</v>
+        <v>89.14</v>
       </c>
       <c r="J2" s="11">
-        <v>83.9</v>
+        <v>83.94</v>
       </c>
       <c r="K2" s="12">
-        <v>74.2</v>
+        <v>74.19</v>
       </c>
       <c r="L2" s="13">
-        <v>91.4</v>
+        <v>91.35</v>
       </c>
       <c r="M2" s="14">
         <v>116.7</v>
       </c>
       <c r="N2" s="15">
-        <v>134</v>
+        <v>134.03</v>
       </c>
       <c r="O2" s="16">
-        <v>223.5</v>
+        <v>223.51</v>
       </c>
       <c r="P2" s="17">
-        <v>344.2</v>
+        <v>344.15</v>
       </c>
       <c r="Q2" s="18">
-        <v>312</v>
+        <v>312.02</v>
       </c>
       <c r="R2" s="19">
-        <v>366.7</v>
+        <v>366.68</v>
       </c>
       <c r="S2" s="20">
-        <v>396.8</v>
+        <v>396.82</v>
       </c>
       <c r="T2" s="21">
-        <v>476.7</v>
+        <v>476.71</v>
       </c>
       <c r="U2" s="22">
-        <v>606.5</v>
+        <v>606.48</v>
       </c>
       <c r="V2" s="23">
         <v>740.7</v>
@@ -1668,55 +1668,55 @@
         <v>76</v>
       </c>
       <c r="E3" s="79">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="F3" s="80">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="G3" s="81">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="H3" s="82">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="I3" s="83">
         <v>3</v>
       </c>
       <c r="J3" s="84">
-        <v>3.4</v>
+        <v>3.41</v>
       </c>
       <c r="K3" s="85">
-        <v>4.0999999999999996</v>
+        <v>4.12</v>
       </c>
       <c r="L3" s="86">
-        <v>5.6</v>
+        <v>5.64</v>
       </c>
       <c r="M3" s="87">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="N3" s="88">
-        <v>7.8</v>
+        <v>7.81</v>
       </c>
       <c r="O3" s="89">
-        <v>9.4</v>
+        <v>9.39</v>
       </c>
       <c r="P3" s="90">
-        <v>13.5</v>
+        <v>13.51</v>
       </c>
       <c r="Q3" s="91">
-        <v>17.3</v>
+        <v>17.329999999999998</v>
       </c>
       <c r="R3" s="92">
         <v>20.7</v>
       </c>
       <c r="S3" s="93">
-        <v>26.3</v>
+        <v>26.28</v>
       </c>
       <c r="T3" s="94">
-        <v>27.1</v>
+        <v>27.05</v>
       </c>
       <c r="U3" s="95">
-        <v>31.5</v>
+        <v>31.46</v>
       </c>
       <c r="V3" s="96">
         <v>41.5</v>
@@ -1876,68 +1876,68 @@
       </c>
     </row>
     <row r="4" spans="1:73" ht="23.25" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="6">
-        <v>3.6</v>
+        <v>3.62</v>
       </c>
       <c r="F4" s="7">
         <v>6.6</v>
       </c>
       <c r="G4" s="8">
-        <v>11.3</v>
+        <v>11.33</v>
       </c>
       <c r="H4" s="9">
-        <v>15.1</v>
+        <v>15.13</v>
       </c>
       <c r="I4" s="10">
-        <v>18.3</v>
+        <v>18.34</v>
       </c>
       <c r="J4" s="11">
-        <v>21.6</v>
+        <v>21.57</v>
       </c>
       <c r="K4" s="12">
-        <v>24.9</v>
+        <v>24.85</v>
       </c>
       <c r="L4" s="13">
-        <v>28.5</v>
+        <v>28.49</v>
       </c>
       <c r="M4" s="14">
-        <v>36.1</v>
+        <v>36.049999999999997</v>
       </c>
       <c r="N4" s="15">
-        <v>42.8</v>
+        <v>42.79</v>
       </c>
       <c r="O4" s="16">
         <v>66.599999999999994</v>
       </c>
       <c r="P4" s="17">
-        <v>105.4</v>
+        <v>105.36</v>
       </c>
       <c r="Q4" s="18">
-        <v>142.19999999999999</v>
+        <v>142.19</v>
       </c>
       <c r="R4" s="19">
-        <v>178</v>
+        <v>178.01</v>
       </c>
       <c r="S4" s="20">
-        <v>220.8</v>
+        <v>220.82</v>
       </c>
       <c r="T4" s="21">
-        <v>290.39999999999998</v>
+        <v>290.38</v>
       </c>
       <c r="U4" s="22">
-        <v>377.7</v>
+        <v>377.66</v>
       </c>
       <c r="V4" s="23">
         <v>485.4</v>
@@ -2110,55 +2110,55 @@
         <v>76</v>
       </c>
       <c r="E5" s="79">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="F5" s="80">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="G5" s="81">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="H5" s="82">
         <v>0.3</v>
       </c>
       <c r="I5" s="83">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="J5" s="84">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="K5" s="85">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="L5" s="86">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="M5" s="87">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="N5" s="88">
-        <v>3.9</v>
+        <v>3.87</v>
       </c>
       <c r="O5" s="89">
         <v>4</v>
       </c>
       <c r="P5" s="90">
-        <v>5.4</v>
+        <v>5.41</v>
       </c>
       <c r="Q5" s="91">
-        <v>8.5</v>
+        <v>8.48</v>
       </c>
       <c r="R5" s="92">
-        <v>12.2</v>
+        <v>12.24</v>
       </c>
       <c r="S5" s="93">
-        <v>14.8</v>
+        <v>14.82</v>
       </c>
       <c r="T5" s="94">
-        <v>18.7</v>
+        <v>18.68</v>
       </c>
       <c r="U5" s="95">
-        <v>26.2</v>
+        <v>26.21</v>
       </c>
       <c r="V5" s="96">
         <v>36</v>
@@ -2318,68 +2318,68 @@
       </c>
     </row>
     <row r="6" spans="1:73" ht="23.25" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E6" s="6">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="F6" s="7">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="G6" s="8">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H6" s="9">
         <v>4.3</v>
       </c>
       <c r="I6" s="10">
-        <v>6.8</v>
+        <v>6.75</v>
       </c>
       <c r="J6" s="11">
-        <v>6.5</v>
+        <v>6.47</v>
       </c>
       <c r="K6" s="12">
-        <v>7.4</v>
+        <v>7.35</v>
       </c>
       <c r="L6" s="13">
-        <v>7.7</v>
+        <v>7.71</v>
       </c>
       <c r="M6" s="14">
-        <v>9.1</v>
+        <v>9.09</v>
       </c>
       <c r="N6" s="15">
-        <v>11</v>
+        <v>10.96</v>
       </c>
       <c r="O6" s="16">
-        <v>13.7</v>
+        <v>13.72</v>
       </c>
       <c r="P6" s="17">
-        <v>18.8</v>
+        <v>18.79</v>
       </c>
       <c r="Q6" s="18">
-        <v>25.6</v>
+        <v>25.56</v>
       </c>
       <c r="R6" s="19">
-        <v>34.9</v>
+        <v>34.880000000000003</v>
       </c>
       <c r="S6" s="20">
-        <v>44.7</v>
+        <v>44.74</v>
       </c>
       <c r="T6" s="21">
-        <v>71.400000000000006</v>
+        <v>71.39</v>
       </c>
       <c r="U6" s="22">
-        <v>108.9</v>
+        <v>108.89</v>
       </c>
       <c r="V6" s="23">
         <v>130.6</v>
@@ -2552,55 +2552,55 @@
         <v>76</v>
       </c>
       <c r="E7" s="79">
-        <v>6.5</v>
+        <v>6.51</v>
       </c>
       <c r="F7" s="80">
         <v>9</v>
       </c>
       <c r="G7" s="81">
-        <v>15.3</v>
+        <v>15.33</v>
       </c>
       <c r="H7" s="82">
         <v>20.3</v>
       </c>
       <c r="I7" s="83">
-        <v>23.6</v>
+        <v>23.64</v>
       </c>
       <c r="J7" s="84">
-        <v>23.8</v>
+        <v>23.76</v>
       </c>
       <c r="K7" s="85">
-        <v>28.3</v>
+        <v>28.34</v>
       </c>
       <c r="L7" s="86">
-        <v>26.2</v>
+        <v>26.22</v>
       </c>
       <c r="M7" s="87">
-        <v>31.2</v>
+        <v>31.17</v>
       </c>
       <c r="N7" s="88">
-        <v>40.5</v>
+        <v>40.46</v>
       </c>
       <c r="O7" s="89">
-        <v>57.3</v>
+        <v>57.27</v>
       </c>
       <c r="P7" s="90">
-        <v>81.900000000000006</v>
+        <v>81.86</v>
       </c>
       <c r="Q7" s="91">
-        <v>111.9</v>
+        <v>111.94</v>
       </c>
       <c r="R7" s="92">
-        <v>152.9</v>
+        <v>152.91</v>
       </c>
       <c r="S7" s="93">
-        <v>200.6</v>
+        <v>200.55</v>
       </c>
       <c r="T7" s="94">
-        <v>241.4</v>
+        <v>241.39</v>
       </c>
       <c r="U7" s="95">
-        <v>327.7</v>
+        <v>327.68</v>
       </c>
       <c r="V7" s="96">
         <v>404.9</v>
@@ -2760,68 +2760,68 @@
       </c>
     </row>
     <row r="8" spans="1:73" ht="23.25" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E8" s="6">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="F8" s="7">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="G8" s="8">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="H8" s="9">
-        <v>3.6</v>
+        <v>3.58</v>
       </c>
       <c r="I8" s="10">
-        <v>6</v>
+        <v>5.96</v>
       </c>
       <c r="J8" s="11">
-        <v>6.8</v>
+        <v>6.76</v>
       </c>
       <c r="K8" s="12">
-        <v>8.1</v>
+        <v>8.08</v>
       </c>
       <c r="L8" s="13">
-        <v>9</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="M8" s="14">
-        <v>11.4</v>
+        <v>11.38</v>
       </c>
       <c r="N8" s="15">
-        <v>13.9</v>
+        <v>13.85</v>
       </c>
       <c r="O8" s="16">
-        <v>15.9</v>
+        <v>15.86</v>
       </c>
       <c r="P8" s="17">
-        <v>18.7</v>
+        <v>18.66</v>
       </c>
       <c r="Q8" s="18">
-        <v>25.5</v>
+        <v>25.49</v>
       </c>
       <c r="R8" s="19">
-        <v>40.700000000000003</v>
+        <v>40.72</v>
       </c>
       <c r="S8" s="20">
-        <v>60.5</v>
+        <v>60.52</v>
       </c>
       <c r="T8" s="21">
-        <v>87</v>
+        <v>87.02</v>
       </c>
       <c r="U8" s="22">
-        <v>115.7</v>
+        <v>115.71</v>
       </c>
       <c r="V8" s="23">
         <v>146.80000000000001</v>
@@ -2994,55 +2994,55 @@
         <v>76</v>
       </c>
       <c r="E9" s="79">
-        <v>0.6</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F9" s="80">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="G9" s="81">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="H9" s="82">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="I9" s="83">
         <v>1.6</v>
       </c>
       <c r="J9" s="84">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="K9" s="85">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="L9" s="86">
-        <v>2.2999999999999998</v>
+        <v>2.27</v>
       </c>
       <c r="M9" s="87">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N9" s="88">
-        <v>4.2</v>
+        <v>4.18</v>
       </c>
       <c r="O9" s="89">
-        <v>4.7</v>
+        <v>4.67</v>
       </c>
       <c r="P9" s="90">
-        <v>7.9</v>
+        <v>7.93</v>
       </c>
       <c r="Q9" s="91">
-        <v>11.7</v>
+        <v>11.71</v>
       </c>
       <c r="R9" s="92">
-        <v>23</v>
+        <v>22.96</v>
       </c>
       <c r="S9" s="93">
-        <v>40.200000000000003</v>
+        <v>40.229999999999997</v>
       </c>
       <c r="T9" s="94">
-        <v>46.8</v>
+        <v>46.77</v>
       </c>
       <c r="U9" s="95">
-        <v>57.2</v>
+        <v>57.17</v>
       </c>
       <c r="V9" s="96">
         <v>50.8</v>
@@ -3202,13 +3202,13 @@
       </c>
     </row>
     <row r="10" spans="1:73" ht="23.25" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -3644,13 +3644,13 @@
       </c>
     </row>
     <row r="12" spans="1:73" ht="23.25" customHeight="1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -3878,55 +3878,55 @@
         <v>76</v>
       </c>
       <c r="E13" s="79">
-        <v>41.3</v>
+        <v>41.31</v>
       </c>
       <c r="F13" s="80">
-        <v>58.5</v>
+        <v>58.52</v>
       </c>
       <c r="G13" s="81">
-        <v>100.4</v>
+        <v>100.36</v>
       </c>
       <c r="H13" s="82">
-        <v>142.5</v>
+        <v>142.47</v>
       </c>
       <c r="I13" s="83">
-        <v>168.6</v>
+        <v>168.63</v>
       </c>
       <c r="J13" s="84">
-        <v>176.8</v>
+        <v>176.84</v>
       </c>
       <c r="K13" s="85">
         <v>186.1</v>
       </c>
       <c r="L13" s="86">
-        <v>212.7</v>
+        <v>212.72</v>
       </c>
       <c r="M13" s="87">
-        <v>253</v>
+        <v>252.99</v>
       </c>
       <c r="N13" s="88">
         <v>304.10000000000002</v>
       </c>
       <c r="O13" s="89">
-        <v>417.9</v>
+        <v>417.87</v>
       </c>
       <c r="P13" s="90">
-        <v>612.29999999999995</v>
+        <v>612.26</v>
       </c>
       <c r="Q13" s="91">
-        <v>693.8</v>
+        <v>693.78</v>
       </c>
       <c r="R13" s="92">
-        <v>837.9</v>
+        <v>837.89</v>
       </c>
       <c r="S13" s="93">
         <v>1039.8</v>
       </c>
       <c r="T13" s="94">
-        <v>1277.0999999999999</v>
+        <v>1277.06</v>
       </c>
       <c r="U13" s="95">
-        <v>1597.8</v>
+        <v>1597.78</v>
       </c>
       <c r="V13" s="96">
         <v>2062.1</v>
@@ -4086,68 +4086,68 @@
       </c>
     </row>
     <row r="14" spans="1:73" ht="23.25" customHeight="1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E14" s="6">
-        <v>3.8</v>
+        <v>3.82</v>
       </c>
       <c r="F14" s="7">
-        <v>6.8</v>
+        <v>6.83</v>
       </c>
       <c r="G14" s="8">
         <v>10.1</v>
       </c>
       <c r="H14" s="9">
-        <v>13.9</v>
+        <v>13.92</v>
       </c>
       <c r="I14" s="10">
-        <v>21.5</v>
+        <v>21.45</v>
       </c>
       <c r="J14" s="11">
-        <v>26.3</v>
+        <v>26.28</v>
       </c>
       <c r="K14" s="12">
         <v>30.9</v>
       </c>
       <c r="L14" s="13">
-        <v>35.6</v>
+        <v>35.57</v>
       </c>
       <c r="M14" s="14">
-        <v>40.1</v>
+        <v>40.049999999999997</v>
       </c>
       <c r="N14" s="15">
-        <v>49.6</v>
+        <v>49.63</v>
       </c>
       <c r="O14" s="16">
-        <v>54.6</v>
+        <v>54.63</v>
       </c>
       <c r="P14" s="17">
-        <v>60.7</v>
+        <v>60.71</v>
       </c>
       <c r="Q14" s="18">
-        <v>74.400000000000006</v>
+        <v>74.41</v>
       </c>
       <c r="R14" s="19">
-        <v>103.2</v>
+        <v>103.17</v>
       </c>
       <c r="S14" s="20">
-        <v>129.69999999999999</v>
+        <v>129.68</v>
       </c>
       <c r="T14" s="21">
-        <v>171.9</v>
+        <v>171.88</v>
       </c>
       <c r="U14" s="22">
-        <v>219.5</v>
+        <v>219.45</v>
       </c>
       <c r="V14" s="23">
         <v>276.7</v>
@@ -4323,52 +4323,52 @@
         <v>3.5</v>
       </c>
       <c r="F15" s="80">
-        <v>6.2</v>
+        <v>6.15</v>
       </c>
       <c r="G15" s="81">
-        <v>11.9</v>
+        <v>11.92</v>
       </c>
       <c r="H15" s="82">
-        <v>15.8</v>
+        <v>15.78</v>
       </c>
       <c r="I15" s="83">
-        <v>21.4</v>
+        <v>21.39</v>
       </c>
       <c r="J15" s="84">
-        <v>21.3</v>
+        <v>21.34</v>
       </c>
       <c r="K15" s="85">
-        <v>25.2</v>
+        <v>25.19</v>
       </c>
       <c r="L15" s="86">
         <v>28.1</v>
       </c>
       <c r="M15" s="87">
-        <v>35.4</v>
+        <v>35.42</v>
       </c>
       <c r="N15" s="88">
-        <v>50.6</v>
+        <v>50.62</v>
       </c>
       <c r="O15" s="89">
-        <v>70.2</v>
+        <v>70.209999999999994</v>
       </c>
       <c r="P15" s="90">
-        <v>85.6</v>
+        <v>85.63</v>
       </c>
       <c r="Q15" s="91">
-        <v>126.8</v>
+        <v>126.75</v>
       </c>
       <c r="R15" s="92">
-        <v>217.3</v>
+        <v>217.25</v>
       </c>
       <c r="S15" s="93">
-        <v>290.3</v>
+        <v>290.33999999999997</v>
       </c>
       <c r="T15" s="94">
-        <v>441</v>
+        <v>441.03</v>
       </c>
       <c r="U15" s="95">
-        <v>588.79999999999995</v>
+        <v>588.76</v>
       </c>
       <c r="V15" s="96">
         <v>722.9</v>
@@ -4528,68 +4528,68 @@
       </c>
     </row>
     <row r="16" spans="1:73" ht="23.25" customHeight="1">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E16" s="6">
-        <v>3.9</v>
+        <v>3.92</v>
       </c>
       <c r="F16" s="7">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="G16" s="8">
-        <v>2.2000000000000002</v>
+        <v>2.15</v>
       </c>
       <c r="H16" s="9">
-        <v>-1.8</v>
+        <v>-1.84</v>
       </c>
       <c r="I16" s="10">
-        <v>9.5</v>
+        <v>9.49</v>
       </c>
       <c r="J16" s="11">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="K16" s="12">
-        <v>-1.3</v>
+        <v>-1.33</v>
       </c>
       <c r="L16" s="13">
-        <v>-1.8</v>
+        <v>-1.81</v>
       </c>
       <c r="M16" s="14">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="N16" s="15">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="O16" s="16">
-        <v>27.2</v>
+        <v>27.21</v>
       </c>
       <c r="P16" s="17">
-        <v>28.4</v>
+        <v>28.38</v>
       </c>
       <c r="Q16" s="18">
-        <v>-4</v>
+        <v>-4.01</v>
       </c>
       <c r="R16" s="19">
-        <v>14.1</v>
+        <v>14.06</v>
       </c>
       <c r="S16" s="20">
         <v>1.3</v>
       </c>
       <c r="T16" s="21">
-        <v>17.7</v>
+        <v>17.71</v>
       </c>
       <c r="U16" s="22">
-        <v>73.599999999999994</v>
+        <v>73.58</v>
       </c>
       <c r="V16" s="23">
         <v>13.3</v>
@@ -4762,55 +4762,55 @@
         <v>76</v>
       </c>
       <c r="E17" s="79">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="F17" s="80">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="G17" s="81">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="H17" s="82">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="I17" s="83">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J17" s="84">
-        <v>3.1</v>
+        <v>3.13</v>
       </c>
       <c r="K17" s="85">
-        <v>4.3</v>
+        <v>4.28</v>
       </c>
       <c r="L17" s="86">
-        <v>6.6</v>
+        <v>6.55</v>
       </c>
       <c r="M17" s="87">
-        <v>12.2</v>
+        <v>12.19</v>
       </c>
       <c r="N17" s="88">
-        <v>14.2</v>
+        <v>14.17</v>
       </c>
       <c r="O17" s="89">
-        <v>20.5</v>
+        <v>20.46</v>
       </c>
       <c r="P17" s="90">
-        <v>36.700000000000003</v>
+        <v>36.71</v>
       </c>
       <c r="Q17" s="91">
-        <v>59.3</v>
+        <v>59.27</v>
       </c>
       <c r="R17" s="92">
         <v>90</v>
       </c>
       <c r="S17" s="93">
-        <v>119.7</v>
+        <v>119.71</v>
       </c>
       <c r="T17" s="94">
         <v>171.7</v>
       </c>
       <c r="U17" s="95">
-        <v>234.8</v>
+        <v>234.77</v>
       </c>
       <c r="V17" s="96">
         <v>319.89999999999998</v>
@@ -4970,68 +4970,68 @@
       </c>
     </row>
     <row r="18" spans="1:73" ht="23.25" customHeight="1">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E18" s="6">
-        <v>4.7</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="F18" s="7">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="G18" s="8">
-        <v>11.3</v>
+        <v>11.29</v>
       </c>
       <c r="H18" s="9">
-        <v>19.8</v>
+        <v>19.82</v>
       </c>
       <c r="I18" s="10">
-        <v>22.8</v>
+        <v>22.84</v>
       </c>
       <c r="J18" s="11">
-        <v>21.4</v>
+        <v>21.38</v>
       </c>
       <c r="K18" s="12">
-        <v>21.6</v>
+        <v>21.63</v>
       </c>
       <c r="L18" s="13">
-        <v>29.9</v>
+        <v>29.93</v>
       </c>
       <c r="M18" s="14">
-        <v>42.1</v>
+        <v>42.12</v>
       </c>
       <c r="N18" s="15">
-        <v>57.1</v>
+        <v>57.06</v>
       </c>
       <c r="O18" s="16">
-        <v>76</v>
+        <v>75.989999999999995</v>
       </c>
       <c r="P18" s="17">
-        <v>91.6</v>
+        <v>91.57</v>
       </c>
       <c r="Q18" s="18">
-        <v>119.1</v>
+        <v>119.14</v>
       </c>
       <c r="R18" s="19">
-        <v>194.2</v>
+        <v>194.21</v>
       </c>
       <c r="S18" s="20">
-        <v>258.5</v>
+        <v>258.51</v>
       </c>
       <c r="T18" s="21">
-        <v>383.2</v>
+        <v>383.19</v>
       </c>
       <c r="U18" s="22">
-        <v>496.8</v>
+        <v>496.75</v>
       </c>
       <c r="V18" s="23">
         <v>590.70000000000005</v>
@@ -5207,52 +5207,52 @@
         <v>-1</v>
       </c>
       <c r="F19" s="80">
-        <v>-2.6</v>
+        <v>-2.61</v>
       </c>
       <c r="G19" s="81">
-        <v>-0.5</v>
+        <v>-0.49</v>
       </c>
       <c r="H19" s="82">
-        <v>-0.9</v>
+        <v>-0.89</v>
       </c>
       <c r="I19" s="83">
-        <v>-2.1</v>
+        <v>-2.0699999999999998</v>
       </c>
       <c r="J19" s="84">
-        <v>-3.1</v>
+        <v>-3.06</v>
       </c>
       <c r="K19" s="85">
-        <v>-2.8</v>
+        <v>-2.76</v>
       </c>
       <c r="L19" s="86">
-        <v>-1.3</v>
+        <v>-1.34</v>
       </c>
       <c r="M19" s="87">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="N19" s="88">
-        <v>3.5</v>
+        <v>3.53</v>
       </c>
       <c r="O19" s="89">
-        <v>4.2</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="P19" s="90">
-        <v>7.6</v>
+        <v>7.56</v>
       </c>
       <c r="Q19" s="91">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="R19" s="92">
-        <v>-2.1</v>
+        <v>-2.09</v>
       </c>
       <c r="S19" s="93">
-        <v>-8.6999999999999993</v>
+        <v>-8.7100000000000009</v>
       </c>
       <c r="T19" s="94">
-        <v>-3.3</v>
+        <v>-3.28</v>
       </c>
       <c r="U19" s="95">
-        <v>-4.9000000000000004</v>
+        <v>-4.93</v>
       </c>
       <c r="V19" s="96">
         <v>-7.6</v>
@@ -5412,13 +5412,13 @@
       </c>
     </row>
     <row r="20" spans="1:73" ht="23.25" customHeight="1">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -5799,7 +5799,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="14"/>
+    <col min="1" max="1" width="127"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="23.25" customHeight="1">
